--- a/data/output/FV2304_FV2210/UTILMD/11196.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11196.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6136" uniqueCount="366">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6157" uniqueCount="366">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1234,6 +1234,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U296" totalsRowShown="0">
+  <autoFilter ref="A1:U296"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1523,7 +1553,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14876,5 +14909,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11196.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11196.xlsx
@@ -2544,7 +2544,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4914,7 +4914,7 @@
         <v>330</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5992,21 +5992,21 @@
       <c r="V73" s="5"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="6" t="s">
         <v>295</v>
       </c>
@@ -6016,18 +6016,18 @@
       <c r="L74" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
       <c r="U74" s="6" t="s">
         <v>366</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>334</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6414,7 +6414,7 @@
         <v>336</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6622,7 +6622,7 @@
         <v>337</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6878,7 +6878,7 @@
         <v>338</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7254,7 +7254,7 @@
         <v>340</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7594,7 +7594,7 @@
         <v>341</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7796,7 +7796,7 @@
         <v>342</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -8084,7 +8084,7 @@
         <v>343</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8570,7 +8570,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8950,7 +8950,7 @@
         <v>346</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9102,7 +9102,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9432,7 +9432,7 @@
         <v>348</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9804,7 +9804,7 @@
         <v>349</v>
       </c>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10274,7 +10274,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10466,7 +10466,7 @@
         <v>350</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10564,7 +10564,7 @@
         <v>351</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10852,7 +10852,7 @@
         <v>343</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -11096,7 +11096,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11338,7 +11338,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11524,7 +11524,7 @@
         <v>352</v>
       </c>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -11896,7 +11896,7 @@
         <v>349</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -12178,7 +12178,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -12612,7 +12612,7 @@
         <v>350</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -12710,7 +12710,7 @@
         <v>353</v>
       </c>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="K219" s="2"/>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -13202,7 +13202,7 @@
         <v>355</v>
       </c>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -13540,7 +13540,7 @@
         <v>356</v>
       </c>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -13678,7 +13678,7 @@
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -13962,7 +13962,7 @@
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -14108,7 +14108,7 @@
         <v>357</v>
       </c>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -14296,7 +14296,7 @@
         <v>358</v>
       </c>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -14618,7 +14618,7 @@
         <v>359</v>
       </c>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="4"/>
-      <c r="M259" s="2" t="s">
+      <c r="M259" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N259" s="2" t="s">
@@ -15110,7 +15110,7 @@
         <v>361</v>
       </c>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -15452,7 +15452,7 @@
         <v>362</v>
       </c>
       <c r="L270" s="4"/>
-      <c r="M270" s="2" t="s">
+      <c r="M270" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N270" s="2" t="s">
@@ -15590,7 +15590,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -15884,7 +15884,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -16166,7 +16166,7 @@
         <v>363</v>
       </c>
       <c r="L285" s="4"/>
-      <c r="M285" s="2" t="s">
+      <c r="M285" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N285" s="2" t="s">
@@ -16302,7 +16302,7 @@
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -16582,7 +16582,7 @@
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N294" s="2"/>
